--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -471,6 +475,29 @@
           <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> setset</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44047</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sadtasdfgasdf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,56 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +527,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test</t>
+          <t xml:space="preserve"> asdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> setset</t>
+          <t xml:space="preserve"> sadf</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44047</v>
+        <v>45146</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,8 +545,38 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sadtasdfgasdf</t>
-        </is>
+          <t xml:space="preserve"> sdaf</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:DB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,456 @@
           <t>Q10</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q16</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Q17</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q19</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q20</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q21</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q22</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Q24</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Q27</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Q28</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Q29</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Q31</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Q32</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Q33</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Q34</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Q35</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Q36</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q37</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Q38</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Q39</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Q40</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Q41</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Q42</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Q43</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Q44</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Q45</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q46</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Q47</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Q48</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Q49</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Q50</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Q51</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Q52</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Q53</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Q54</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Q55</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q56</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Q57</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Q58</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Q59</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q60</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q61</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Q62</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q63</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Q64</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Q65</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Q68</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Q69</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Q70</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Q71</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q72</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Q73</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Q74</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Q75</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Q76</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Q77</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Q78</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Q79</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Q80</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Q81</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q82</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Q83</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Q84</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Q85</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Q86</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Q87</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Q88</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q89</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Q90</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Q91</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Q92</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Q93</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Q94</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Q95</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Q96</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Q97</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q98</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Q99</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Q100</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -527,16 +977,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> asdf</t>
+          <t>Kenneth Von</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sadf</t>
+          <t>Golosinda</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,38 +995,308 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sdaf</t>
+          <t>kvgolosinda@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:DB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,506 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q16</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Q17</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q19</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q20</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q21</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q22</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Q24</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Q27</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Q28</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Q29</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Q31</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Q32</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Q33</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Q34</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Q35</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Q36</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q37</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Q38</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Q39</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Q40</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Q41</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Q42</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Q43</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Q44</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Q45</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q46</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Q47</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Q48</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Q49</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Q50</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Q51</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Q52</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Q53</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Q54</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Q55</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q56</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Q57</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Q58</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Q59</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q60</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q61</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Q62</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q63</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Q64</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Q65</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Q68</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Q69</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Q70</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Q71</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q72</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Q73</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Q74</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Q75</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Q76</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Q77</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Q78</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Q79</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Q80</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Q81</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q82</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Q83</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Q84</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Q85</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Q86</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Q87</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Q88</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q89</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Q90</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Q91</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Q92</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Q93</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Q94</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Q95</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Q96</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Q97</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q98</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Q99</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Q100</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +977,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sdf</t>
+          <t>Kenneth Von</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sdfdf</t>
+          <t>Golosinda</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45147</v>
+        <v>36566</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,8 +995,308 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
-        </is>
+          <t>kvgolosinda@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test</t>
+          <t xml:space="preserve"> tes</t>
         </is>
       </c>
     </row>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,56 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +527,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test</t>
+          <t xml:space="preserve"> Kenneth Von</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test</t>
+          <t>Golosinda</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45148</v>
+        <v>36754</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,8 +545,38 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> tes</t>
-        </is>
+          <t xml:space="preserve"> kvgolosinda@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -1,40 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Personality-Test-Streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE4F52-85AA-4316-92C5-83D33C83F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2940" yWindow="2208" windowWidth="16596" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Would you like to proceed?</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth </t>
+  </si>
+  <si>
+    <t>Von</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +123,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,159 +448,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Would you like to proceed?</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Birth Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Email Address</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Q6</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Q7</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Q8</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kenneth Von</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Golosinda</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>36754</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> kvgolosinda@gmail.com</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -1,114 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Personality-Test-Streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE4F52-85AA-4316-92C5-83D33C83F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2208" windowWidth="16596" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Would you like to proceed?</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth </t>
-  </si>
-  <si>
-    <t>Von</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,113 +424,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Would you like to proceed?</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Birth Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email Address</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Image Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Testdata</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Testdata</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>36747</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Testdata@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TestdataTestdata20230811_100601.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45149</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
+      <c r="Q2" t="n">
         <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,61 +468,6 @@
           <t>Email Address</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Image Name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Q6</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Q7</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Q8</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,16 +477,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testdata</t>
+          <t xml:space="preserve"> sadfasdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testdata</t>
+          <t xml:space="preserve"> sadfasdf</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>36747</v>
+        <v>45149</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -550,43 +495,8 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Testdata@gmail.com</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TestdataTestdata20230811_100601.jpg</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
+          <t>asdfasdf@gmasdfsdf.com</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:DC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,511 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Image Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Q16</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q17</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q19</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q20</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q21</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q22</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Q24</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Q27</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Q28</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q29</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Q31</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Q32</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Q33</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Q34</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Q35</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q36</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Q37</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Q38</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Q39</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Q40</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Q41</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Q42</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Q43</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Q44</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q45</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Q46</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Q47</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Q48</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Q49</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Q50</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Q51</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Q52</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Q53</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Q54</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q55</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Q56</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Q57</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Q58</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q59</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q60</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Q61</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q62</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Q63</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Q64</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Q65</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Q68</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Q69</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Q70</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q71</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Q72</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Q73</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Q74</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Q75</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Q76</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Q77</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Q78</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Q79</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Q80</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q81</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Q82</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Q83</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Q84</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Q85</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Q86</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Q87</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q88</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Q89</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Q90</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Q91</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Q92</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Q93</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Q94</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Q95</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Q96</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q97</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Q98</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Q99</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Q100</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +982,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sadfasdf</t>
+          <t>Arvin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sadfasdf</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,8 +1000,313 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>asdfasdf@gmasdfsdf.com</t>
-        </is>
+          <t>ArvinGo@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ArvinGo20230814_162810.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,61 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Image Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +532,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dsd</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sdsd</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45154</v>
+        <v>36558</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,8 +550,43 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sdfsd@gmail.com</t>
-        </is>
+          <t>test3@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>test3test320230817_175706.png</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -532,16 +532,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t xml:space="preserve"> testFN4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>testLN4</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>36558</v>
+        <v>37119</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -550,31 +550,31 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test3@gmail.com</t>
+          <t>test4@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>test3test320230817_175706.png</t>
+          <t>testFN4testLN420230817_204203.jpg</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
@@ -586,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:DC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,456 @@
           <t>Q10</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Q16</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q17</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q19</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q20</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q21</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q22</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Q24</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Q27</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Q28</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q29</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Q31</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Q32</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Q33</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Q34</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Q35</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q36</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Q37</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Q38</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Q39</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Q40</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Q41</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Q42</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Q43</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Q44</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q45</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Q46</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Q47</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Q48</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Q49</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Q50</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Q51</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Q52</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Q53</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Q54</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q55</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Q56</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Q57</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Q58</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q59</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Q60</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Q61</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q62</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Q63</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Q64</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Q65</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Q66</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Q67</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Q68</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Q69</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Q70</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q71</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Q72</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Q73</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Q74</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Q75</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Q76</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Q77</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Q78</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Q79</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Q80</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Q81</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Q82</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Q83</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Q84</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Q85</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Q86</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Q87</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q88</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Q89</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Q90</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Q91</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Q92</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Q93</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Q94</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Q95</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Q96</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Q97</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Q98</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Q99</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Q100</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,16 +982,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> testFN4</t>
+          <t xml:space="preserve"> Kenneth Test</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>testLN4</t>
+          <t>TestGolosinda</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>37119</v>
+        <v>36741</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -550,42 +1000,312 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test4@gmail.com</t>
+          <t>TestKenneth@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>testFN4testLN420230817_204203.jpg</t>
+          <t>KennethTestTestGolosinda20230818_091712.jpg</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -982,16 +982,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kenneth Test</t>
+          <t xml:space="preserve"> Kennethtest4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TestGolosinda</t>
+          <t>Golosindatest4</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>36741</v>
+        <v>45156</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1000,19 +1000,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TestKenneth@gmail.com</t>
+          <t>KGtest4@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KennethTestTestGolosinda20230818_091712.jpg</t>
+          <t>Kennethtest4Golosindatest420230818_093603.png</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -1024,28 +1024,28 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
+      <c r="S2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="T2" t="n">
         <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
@@ -1060,250 +1060,250 @@
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
         <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BE2" t="n">
         <v>5</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BG2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ2" t="n">
         <v>5</v>
       </c>
       <c r="BK2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL2" t="n">
         <v>5</v>
       </c>
       <c r="BM2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BN2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BS2" t="n">
         <v>5</v>
       </c>
       <c r="BT2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BU2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BV2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BW2" t="n">
         <v>5</v>
       </c>
       <c r="BX2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BY2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CB2" t="n">
         <v>5</v>
       </c>
       <c r="CC2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CD2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE2" t="n">
         <v>5</v>
       </c>
       <c r="CF2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CG2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CH2" t="n">
         <v>5</v>
       </c>
       <c r="CI2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CK2" t="n">
         <v>5</v>
       </c>
       <c r="CL2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CP2" t="n">
         <v>5</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CR2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS2" t="n">
         <v>5</v>
       </c>
       <c r="CT2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV2" t="n">
         <v>5</v>
       </c>
       <c r="CW2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CX2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CY2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DA2" t="n">
         <v>5</v>
       </c>
       <c r="DB2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DC2" t="n">
         <v>5</v>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -982,16 +982,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kenneth Test</t>
+          <t xml:space="preserve"> Kennethtest3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TestGolosinda</t>
+          <t>Golosindatest3</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>36741</v>
+        <v>35296</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1000,19 +1000,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TestKenneth@gmail.com</t>
+          <t>test3G@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KennethTestTestGolosinda20230818_091712.jpg</t>
+          <t>Kennethtest3Golosindatest320230818_095028.png</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -1024,286 +1024,286 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
       <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>3</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>4</v>
       </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BE2" t="n">
         <v>5</v>
       </c>
       <c r="BF2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BG2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ2" t="n">
         <v>5</v>
       </c>
       <c r="BK2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL2" t="n">
         <v>5</v>
       </c>
       <c r="BM2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BN2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BS2" t="n">
         <v>5</v>
       </c>
       <c r="BT2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BU2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BV2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BW2" t="n">
         <v>5</v>
       </c>
       <c r="BX2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BY2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CB2" t="n">
         <v>5</v>
       </c>
       <c r="CC2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CD2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE2" t="n">
         <v>5</v>
       </c>
       <c r="CF2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CG2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CH2" t="n">
         <v>5</v>
       </c>
       <c r="CI2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CK2" t="n">
         <v>5</v>
       </c>
       <c r="CL2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CP2" t="n">
         <v>5</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CR2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS2" t="n">
         <v>5</v>
       </c>
       <c r="CT2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV2" t="n">
         <v>5</v>
       </c>
       <c r="CW2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CX2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CY2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DA2" t="n">
         <v>5</v>
       </c>
       <c r="DB2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DC2" t="n">
         <v>5</v>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -982,16 +982,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kennethtest3</t>
+          <t xml:space="preserve"> Kenneth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Golosindatest3</t>
+          <t>Golosinda</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>35296</v>
+        <v>36746</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1000,16 +1000,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test3G@gmail.com</t>
+          <t>kvgolosinda@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kennethtest3Golosindatest320230818_095028.png</t>
+          <t>KennethGolosinda20230818_185315.jpg</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -1021,19 +1021,19 @@
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -1042,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +468,61 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Image Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,28 +532,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> sdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t xml:space="preserve"> sadfasdf</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45168</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>asdfasdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sdfsadfasdf20230830_142950.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,61 +468,6 @@
           <t>Email Address</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Image Name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Q6</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Q7</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Q8</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Q10</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,16 +477,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sdf</t>
+          <t xml:space="preserve"> asdfasdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sadfasdf</t>
+          <t xml:space="preserve"> asdfasdf</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45168</v>
+        <v>45238</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -552,41 +497,6 @@
         <is>
           <t>asdfasdf@gmail.com</t>
         </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>sdfsadfasdf20230830_142950.jpg</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/user_answers.xlsx
+++ b/user_answers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,61 @@
           <t>Email Address</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Image Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +532,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> asdfasdf</t>
+          <t xml:space="preserve"> Kenneth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> asdfasdf</t>
+          <t>Golosinda</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,8 +550,43 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>asdfasdf@gmail.com</t>
-        </is>
+          <t>sdfsdfsadfsdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>KennethGolosinda20231113_163423.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
